--- a/out/test/Figori_algorithm_2.xlsx
+++ b/out/test/Figori_algorithm_2.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.69469999999999998</v>
+        <v>0.68615000000000004</v>
       </c>
       <c r="B1">
-        <v>0.67135</v>
+        <v>0.45615</v>
       </c>
       <c r="C1">
-        <v>0.45634999999999998</v>
+        <v>0.68845000000000001</v>
       </c>
       <c r="D1">
-        <v>0.68700000000000006</v>
+        <v>0.68045</v>
       </c>
       <c r="E1">
-        <v>0.67874999999999996</v>
+        <v>0.67430000000000001</v>
       </c>
       <c r="F1">
-        <v>0.69269999999999998</v>
+        <v>0.67710000000000004</v>
       </c>
       <c r="G1">
-        <v>0.45234999999999997</v>
+        <v>0.68594999999999995</v>
       </c>
       <c r="H1">
-        <v>0.68359999999999999</v>
+        <v>0.45455000000000001</v>
       </c>
       <c r="I1">
-        <v>0.68605000000000005</v>
+        <v>0.68784999999999996</v>
       </c>
       <c r="J1">
-        <v>0.67905000000000004</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="K1">
-        <v>0.45419999999999999</v>
+        <v>0.45145000000000002</v>
       </c>
       <c r="L1">
-        <v>0.69550000000000001</v>
+        <v>0.68620000000000003</v>
       </c>
       <c r="M1">
-        <v>0.68855</v>
+        <v>0.68154999999999999</v>
       </c>
       <c r="N1">
-        <v>0.4526</v>
+        <v>0.68074999999999997</v>
       </c>
       <c r="O1">
-        <v>0.67625000000000002</v>
+        <v>0.68805000000000005</v>
       </c>
       <c r="P1">
-        <v>0.6734</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.67615000000000003</v>
+        <v>0.68045</v>
       </c>
       <c r="R1">
-        <v>0.68010000000000004</v>
+        <v>0.68774999999999997</v>
       </c>
       <c r="S1">
-        <v>0.45705000000000001</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="T1">
-        <v>0.69015000000000004</v>
+        <v>0.68525000000000003</v>
       </c>
       <c r="U1">
-        <v>0.6724</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="V1">
-        <v>0.67420000000000002</v>
+        <v>0.68805000000000005</v>
       </c>
       <c r="W1">
-        <v>0.68415000000000004</v>
+        <v>0.68894999999999995</v>
       </c>
       <c r="X1">
-        <v>0.67459999999999998</v>
+        <v>0.67945</v>
       </c>
       <c r="Y1">
-        <v>0.68825000000000003</v>
+        <v>0.45474999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.68740000000000001</v>
+        <v>0.68805000000000005</v>
       </c>
       <c r="AA1">
-        <v>0.67210000000000003</v>
+        <v>0.68689999999999996</v>
       </c>
       <c r="AB1">
-        <v>0.66995000000000005</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="AC1">
-        <v>0.68689999999999996</v>
+        <v>0.68559999999999999</v>
       </c>
       <c r="AD1">
-        <v>0.68994999999999995</v>
+        <v>0.69069999999999998</v>
       </c>
       <c r="AE1">
-        <v>0.68030000000000002</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="AF1">
-        <v>0.45629999999999998</v>
+        <v>0.45574999999999999</v>
       </c>
       <c r="AG1">
-        <v>0.69115000000000004</v>
+        <v>0.67384999999999995</v>
       </c>
       <c r="AH1">
-        <v>0.68564999999999998</v>
+        <v>0.68405000000000005</v>
       </c>
       <c r="AI1">
-        <v>0.67864999999999998</v>
+        <v>0.45155000000000001</v>
       </c>
       <c r="AJ1">
-        <v>0.68469999999999998</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="AK1">
-        <v>0.69245000000000001</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="AL1">
-        <v>0.68089999999999995</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="AM1">
-        <v>0.69184999999999997</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.68145</v>
+        <v>0.67510000000000003</v>
       </c>
       <c r="AO1">
-        <v>0.67920000000000003</v>
+        <v>0.4572</v>
       </c>
       <c r="AP1">
-        <v>0.69225000000000003</v>
+        <v>0.67454999999999998</v>
       </c>
       <c r="AQ1">
-        <v>0.68625000000000003</v>
+        <v>0.68159999999999998</v>
       </c>
       <c r="AR1">
-        <v>0.68884999999999996</v>
+        <v>0.68705000000000005</v>
       </c>
       <c r="AS1">
-        <v>0.68184999999999996</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="AT1">
-        <v>0.68955</v>
+        <v>0.68794999999999995</v>
       </c>
       <c r="AU1">
-        <v>0.68049999999999999</v>
+        <v>0.45505000000000001</v>
       </c>
       <c r="AV1">
-        <v>0.45584999999999998</v>
+        <v>0.67820000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.68915000000000004</v>
+        <v>0.45205000000000001</v>
       </c>
       <c r="AX1">
-        <v>0.67695000000000005</v>
+        <v>0.67805000000000004</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.66115000000000002</v>
+        <v>0.66454999999999997</v>
       </c>
       <c r="B2">
-        <v>0.66120000000000001</v>
+        <v>0.43285000000000001</v>
       </c>
       <c r="C2">
-        <v>0.42799999999999999</v>
+        <v>0.66644999999999999</v>
       </c>
       <c r="D2">
+        <v>0.65774999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.65254999999999996</v>
+      </c>
+      <c r="G2">
+        <v>0.67764999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.442</v>
+      </c>
+      <c r="I2">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="J2">
+        <v>0.67574999999999996</v>
+      </c>
+      <c r="K2">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.68354999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.67105000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.67945</v>
+      </c>
+      <c r="P2">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="R2">
+        <v>0.66405000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.67925000000000002</v>
+      </c>
+      <c r="T2">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="U2">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="V2">
+        <v>0.6522</v>
+      </c>
+      <c r="W2">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="Y2">
+        <v>0.44124999999999998</v>
+      </c>
+      <c r="Z2">
+        <v>0.66315000000000002</v>
+      </c>
+      <c r="AA2">
+        <v>0.63880000000000003</v>
+      </c>
+      <c r="AB2">
         <v>0.66725000000000001</v>
       </c>
-      <c r="E2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.91920000000000002</v>
-      </c>
-      <c r="G2">
-        <v>0.43930000000000002</v>
-      </c>
-      <c r="H2">
-        <v>0.6673</v>
-      </c>
-      <c r="I2">
-        <v>0.6804</v>
-      </c>
-      <c r="J2">
-        <v>0.67035</v>
-      </c>
-      <c r="K2">
-        <v>0.43680000000000002</v>
-      </c>
-      <c r="L2">
-        <v>0.67369999999999997</v>
-      </c>
-      <c r="M2">
-        <v>0.67095000000000005</v>
-      </c>
-      <c r="N2">
-        <v>0.44005</v>
-      </c>
-      <c r="O2">
-        <v>0.66444999999999999</v>
-      </c>
-      <c r="P2">
-        <v>0.64570000000000005</v>
-      </c>
-      <c r="Q2">
-        <v>0.66034999999999999</v>
-      </c>
-      <c r="R2">
-        <v>0.91779999999999995</v>
-      </c>
-      <c r="S2">
-        <v>0.44069999999999998</v>
-      </c>
-      <c r="T2">
-        <v>0.67105000000000004</v>
-      </c>
-      <c r="U2">
-        <v>0.65859999999999996</v>
-      </c>
-      <c r="V2">
-        <v>0.65510000000000002</v>
-      </c>
-      <c r="W2">
-        <v>0.64770000000000005</v>
-      </c>
-      <c r="X2">
-        <v>0.67359999999999998</v>
-      </c>
-      <c r="Y2">
-        <v>0.65105000000000002</v>
-      </c>
-      <c r="Z2">
-        <v>0.66285000000000005</v>
-      </c>
-      <c r="AA2">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="AB2">
-        <v>0.67384999999999995</v>
-      </c>
       <c r="AC2">
-        <v>0.67174999999999996</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="AD2">
-        <v>0.66639999999999999</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="AE2">
-        <v>0.6754</v>
+        <v>0.66539999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.67100000000000004</v>
+        <v>0.43945000000000001</v>
       </c>
       <c r="AG2">
-        <v>0.68025000000000002</v>
+        <v>0.64844999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.68500000000000005</v>
+        <v>0.65590000000000004</v>
       </c>
       <c r="AI2">
-        <v>0.67730000000000001</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.65969999999999995</v>
+        <v>0.67464999999999997</v>
       </c>
       <c r="AK2">
-        <v>0.66574999999999995</v>
+        <v>0.66364999999999996</v>
       </c>
       <c r="AL2">
-        <v>0.67130000000000001</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="AM2">
-        <v>0.68810000000000004</v>
+        <v>0.67015000000000002</v>
       </c>
       <c r="AN2">
-        <v>0.65449999999999997</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.64429999999999998</v>
+        <v>0.44845000000000002</v>
       </c>
       <c r="AP2">
-        <v>0.65034999999999998</v>
+        <v>0.65954999999999997</v>
       </c>
       <c r="AQ2">
-        <v>0.67449999999999999</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="AR2">
-        <v>0.67900000000000005</v>
+        <v>0.68210000000000004</v>
       </c>
       <c r="AS2">
-        <v>0.66169999999999995</v>
+        <v>0.64990000000000003</v>
       </c>
       <c r="AT2">
-        <v>0.67874999999999996</v>
+        <v>0.90564999999999996</v>
       </c>
       <c r="AU2">
-        <v>0.66869999999999996</v>
+        <v>0.44785000000000003</v>
       </c>
       <c r="AV2">
-        <v>0.43419999999999997</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="AW2">
-        <v>0.70699999999999996</v>
+        <v>0.45305000000000001</v>
       </c>
       <c r="AX2">
-        <v>0.66525000000000001</v>
+        <v>0.66195000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.63454999999999995</v>
+        <v>0.61595</v>
       </c>
       <c r="B3">
-        <v>0.80764999999999998</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="C3">
-        <v>0.4194</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="D3">
-        <v>0.93935000000000002</v>
+        <v>0.59850000000000003</v>
       </c>
       <c r="E3">
-        <v>0.873</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="F3">
-        <v>0.85189999999999999</v>
+        <v>0.68194999999999995</v>
       </c>
       <c r="G3">
-        <v>0.40510000000000002</v>
+        <v>0.62865000000000004</v>
       </c>
       <c r="H3">
-        <v>0.62480000000000002</v>
+        <v>0.40310000000000001</v>
       </c>
       <c r="I3">
-        <v>0.91944999999999999</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="J3">
-        <v>0.64359999999999995</v>
+        <v>0.63514999999999999</v>
       </c>
       <c r="K3">
-        <v>0.60455000000000003</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="L3">
-        <v>0.63244999999999996</v>
+        <v>0.628</v>
       </c>
       <c r="M3">
-        <v>0.64995000000000003</v>
+        <v>0.69155</v>
       </c>
       <c r="N3">
-        <v>0.42054999999999998</v>
+        <v>0.91185000000000005</v>
       </c>
       <c r="O3">
-        <v>0.59689999999999999</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="P3">
-        <v>0.63190000000000002</v>
+        <v>0.5766</v>
       </c>
       <c r="Q3">
-        <v>0.64790000000000003</v>
+        <v>0.64915</v>
       </c>
       <c r="R3">
-        <v>0.92789999999999995</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="S3">
-        <v>0.41515000000000002</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="T3">
-        <v>0.66239999999999999</v>
+        <v>0.66185000000000005</v>
       </c>
       <c r="U3">
-        <v>0.62344999999999995</v>
+        <v>0.5827</v>
       </c>
       <c r="V3">
-        <v>0.61614999999999998</v>
+        <v>0.58255000000000001</v>
       </c>
       <c r="W3">
-        <v>0.62880000000000003</v>
+        <v>0.60014999999999996</v>
       </c>
       <c r="X3">
-        <v>0.65234999999999999</v>
+        <v>0.58455000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.59530000000000005</v>
+        <v>0.66054999999999997</v>
       </c>
       <c r="Z3">
-        <v>0.61470000000000002</v>
+        <v>0.80959999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.83084999999999998</v>
+        <v>0.59189999999999998</v>
       </c>
       <c r="AB3">
-        <v>0.65195000000000003</v>
+        <v>0.62455000000000005</v>
       </c>
       <c r="AC3">
-        <v>0.87560000000000004</v>
+        <v>0.88995000000000002</v>
       </c>
       <c r="AD3">
-        <v>0.84289999999999998</v>
+        <v>0.63444999999999996</v>
       </c>
       <c r="AE3">
-        <v>0.65449999999999997</v>
+        <v>0.60294999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.82094999999999996</v>
+        <v>0.40015000000000001</v>
       </c>
       <c r="AG3">
-        <v>0.89005000000000001</v>
+        <v>0.62055000000000005</v>
       </c>
       <c r="AH3">
-        <v>0.66895000000000004</v>
+        <v>0.62055000000000005</v>
       </c>
       <c r="AI3">
-        <v>0.63565000000000005</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="AJ3">
-        <v>0.62080000000000002</v>
+        <v>0.69045000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.64485000000000003</v>
+        <v>0.57310000000000005</v>
       </c>
       <c r="AL3">
-        <v>0.624</v>
+        <v>0.63195000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.63954999999999995</v>
+        <v>0.84560000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.62675000000000003</v>
+        <v>0.60294999999999999</v>
       </c>
       <c r="AO3">
-        <v>0.59489999999999998</v>
+        <v>0.42485000000000001</v>
       </c>
       <c r="AP3">
-        <v>0.61519999999999997</v>
+        <v>0.59709999999999996</v>
       </c>
       <c r="AQ3">
-        <v>0.64480000000000004</v>
+        <v>0.6552</v>
       </c>
       <c r="AR3">
-        <v>0.67559999999999998</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="AS3">
-        <v>0.68505000000000005</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="AT3">
-        <v>0.61560000000000004</v>
+        <v>0.83004999999999995</v>
       </c>
       <c r="AU3">
-        <v>0.63024999999999998</v>
+        <v>0.41425000000000001</v>
       </c>
       <c r="AV3">
-        <v>0.38329999999999997</v>
+        <v>0.61734999999999995</v>
       </c>
       <c r="AW3">
-        <v>0.66559999999999997</v>
+        <v>0.42975000000000002</v>
       </c>
       <c r="AX3">
-        <v>0.57199999999999995</v>
+        <v>0.61309999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.82294999999999996</v>
+        <v>0.55054999999999998</v>
       </c>
       <c r="B4">
-        <v>0.79264999999999997</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="C4">
-        <v>0.33529999999999999</v>
+        <v>0.56545000000000001</v>
       </c>
       <c r="D4">
-        <v>0.84940000000000004</v>
+        <v>0.61294999999999999</v>
       </c>
       <c r="E4">
-        <v>0.82909999999999995</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F4">
-        <v>0.79979999999999996</v>
+        <v>0.90090000000000003</v>
       </c>
       <c r="G4">
-        <v>0.37435000000000002</v>
+        <v>0.59240000000000004</v>
       </c>
       <c r="H4">
-        <v>0.51875000000000004</v>
+        <v>0.38124999999999998</v>
       </c>
       <c r="I4">
-        <v>0.92930000000000001</v>
+        <v>0.82330000000000003</v>
       </c>
       <c r="J4">
-        <v>0.55889999999999995</v>
+        <v>0.56705000000000005</v>
       </c>
       <c r="K4">
-        <v>0.5897</v>
+        <v>0.57479999999999998</v>
       </c>
       <c r="L4">
-        <v>0.57494999999999996</v>
+        <v>0.56225000000000003</v>
       </c>
       <c r="M4">
-        <v>0.93074999999999997</v>
+        <v>0.6522</v>
       </c>
       <c r="N4">
-        <v>0.36919999999999997</v>
+        <v>0.87805</v>
       </c>
       <c r="O4">
-        <v>0.83604999999999996</v>
+        <v>0.50014999999999998</v>
       </c>
       <c r="P4">
-        <v>0.57184999999999997</v>
+        <v>0.52885000000000004</v>
       </c>
       <c r="Q4">
-        <v>0.59275</v>
+        <v>0.84960000000000002</v>
       </c>
       <c r="R4">
-        <v>0.95025000000000004</v>
+        <v>0.74804999999999999</v>
       </c>
       <c r="S4">
-        <v>0.76670000000000005</v>
+        <v>0.55579999999999996</v>
       </c>
       <c r="T4">
-        <v>0.66059999999999997</v>
+        <v>0.64134999999999998</v>
       </c>
       <c r="U4">
-        <v>0.73834999999999995</v>
+        <v>0.50429999999999997</v>
       </c>
       <c r="V4">
-        <v>0.58025000000000004</v>
+        <v>0.59355000000000002</v>
       </c>
       <c r="W4">
-        <v>0.61214999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="X4">
-        <v>0.58625000000000005</v>
+        <v>0.54649999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.52744999999999997</v>
+        <v>0.60045000000000004</v>
       </c>
       <c r="Z4">
-        <v>0.54995000000000005</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.75844999999999996</v>
+        <v>0.51175000000000004</v>
       </c>
       <c r="AB4">
-        <v>0.59184999999999999</v>
+        <v>0.58394999999999997</v>
       </c>
       <c r="AC4">
-        <v>0.83260000000000001</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.74765000000000004</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="AE4">
-        <v>0.86329999999999996</v>
+        <v>0.55810000000000004</v>
       </c>
       <c r="AF4">
-        <v>0.75434999999999997</v>
+        <v>0.36054999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.83135000000000003</v>
+        <v>0.58714999999999995</v>
       </c>
       <c r="AH4">
-        <v>0.62809999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="AI4">
-        <v>0.53854999999999997</v>
+        <v>0.54225000000000001</v>
       </c>
       <c r="AJ4">
-        <v>0.52954999999999997</v>
+        <v>0.80374999999999996</v>
       </c>
       <c r="AK4">
-        <v>0.60285</v>
+        <v>0.56089999999999995</v>
       </c>
       <c r="AL4">
-        <v>0.56994999999999996</v>
+        <v>0.57145000000000001</v>
       </c>
       <c r="AM4">
-        <v>0.59709999999999996</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="AN4">
-        <v>0.5534</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="AO4">
-        <v>0.52244999999999997</v>
+        <v>0.38624999999999998</v>
       </c>
       <c r="AP4">
-        <v>0.57984999999999998</v>
+        <v>0.54059999999999997</v>
       </c>
       <c r="AQ4">
-        <v>0.57509999999999994</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="AR4">
-        <v>0.86724999999999997</v>
+        <v>0.61745000000000005</v>
       </c>
       <c r="AS4">
-        <v>0.66290000000000004</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="AT4">
-        <v>0.53764999999999996</v>
+        <v>0.81030000000000002</v>
       </c>
       <c r="AU4">
-        <v>0.56235000000000002</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="AV4">
-        <v>0.53620000000000001</v>
+        <v>0.60085</v>
       </c>
       <c r="AW4">
-        <v>0.64844999999999997</v>
+        <v>0.37890000000000001</v>
       </c>
       <c r="AX4">
-        <v>0.53649999999999998</v>
+        <v>0.56184999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.84675</v>
+        <v>0.46910000000000002</v>
       </c>
       <c r="B5">
-        <v>0.75700000000000001</v>
+        <v>0.29894999999999999</v>
       </c>
       <c r="C5">
-        <v>0.44024999999999997</v>
+        <v>0.49854999999999999</v>
       </c>
       <c r="D5">
-        <v>0.79449999999999998</v>
+        <v>0.55569999999999997</v>
       </c>
       <c r="E5">
-        <v>0.73680000000000001</v>
+        <v>0.79769999999999996</v>
       </c>
       <c r="F5">
-        <v>0.70794999999999997</v>
+        <v>0.88275000000000003</v>
       </c>
       <c r="G5">
-        <v>0.32519999999999999</v>
+        <v>0.62285000000000001</v>
       </c>
       <c r="H5">
-        <v>0.40334999999999999</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="I5">
-        <v>0.90705000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="J5">
-        <v>0.52305000000000001</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="K5">
-        <v>0.67284999999999995</v>
+        <v>0.4667</v>
       </c>
       <c r="L5">
-        <v>0.48209999999999997</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="M5">
-        <v>0.92169999999999996</v>
+        <v>0.63119999999999998</v>
       </c>
       <c r="N5">
-        <v>0.49730000000000002</v>
+        <v>0.78044999999999998</v>
       </c>
       <c r="O5">
-        <v>0.8034</v>
+        <v>0.44629999999999997</v>
       </c>
       <c r="P5">
-        <v>0.83720000000000006</v>
+        <v>0.48235</v>
       </c>
       <c r="Q5">
-        <v>0.81079999999999997</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="R5">
-        <v>0.91110000000000002</v>
+        <v>0.73040000000000005</v>
       </c>
       <c r="S5">
-        <v>0.56000000000000005</v>
+        <v>0.4798</v>
       </c>
       <c r="T5">
-        <v>0.63819999999999999</v>
+        <v>0.56205000000000005</v>
       </c>
       <c r="U5">
-        <v>0.69525000000000003</v>
+        <v>0.62080000000000002</v>
       </c>
       <c r="V5">
-        <v>0.51854999999999996</v>
+        <v>0.51119999999999999</v>
       </c>
       <c r="W5">
-        <v>0.52690000000000003</v>
+        <v>0.44155</v>
       </c>
       <c r="X5">
-        <v>0.88485000000000003</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="Y5">
-        <v>0.43814999999999998</v>
+        <v>0.53915000000000002</v>
       </c>
       <c r="Z5">
-        <v>0.5776</v>
+        <v>0.77524999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.72255000000000003</v>
+        <v>0.41844999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.49964999999999998</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="AC5">
-        <v>0.70974999999999999</v>
+        <v>0.91615000000000002</v>
       </c>
       <c r="AD5">
-        <v>0.56830000000000003</v>
+        <v>0.83104999999999996</v>
       </c>
       <c r="AE5">
-        <v>0.77564999999999995</v>
+        <v>0.46675</v>
       </c>
       <c r="AF5">
-        <v>0.67910000000000004</v>
+        <v>0.31674999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.85419999999999996</v>
+        <v>0.54954999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.59494999999999998</v>
+        <v>0.43149999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.43480000000000002</v>
+        <v>0.44114999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.45050000000000001</v>
+        <v>0.86970000000000003</v>
       </c>
       <c r="AK5">
-        <v>0.51685000000000003</v>
+        <v>0.56725000000000003</v>
       </c>
       <c r="AL5">
-        <v>0.59565000000000001</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="AM5">
-        <v>0.56145</v>
+        <v>0.67779999999999996</v>
       </c>
       <c r="AN5">
-        <v>0.61270000000000002</v>
+        <v>0.45639999999999997</v>
       </c>
       <c r="AO5">
-        <v>0.58684999999999998</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.52129999999999999</v>
+        <v>0.42775000000000002</v>
       </c>
       <c r="AQ5">
-        <v>0.4466</v>
+        <v>0.87150000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.76400000000000001</v>
+        <v>0.63685000000000003</v>
       </c>
       <c r="AS5">
-        <v>0.62760000000000005</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="AT5">
-        <v>0.81899999999999995</v>
+        <v>0.82655000000000001</v>
       </c>
       <c r="AU5">
-        <v>0.59365000000000001</v>
+        <v>0.50024999999999997</v>
       </c>
       <c r="AV5">
-        <v>0.56154999999999999</v>
+        <v>0.50695000000000001</v>
       </c>
       <c r="AW5">
-        <v>0.63660000000000005</v>
+        <v>0.33615</v>
       </c>
       <c r="AX5">
-        <v>0.48814999999999997</v>
+        <v>0.42059999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.77939999999999998</v>
+        <v>0.40144999999999997</v>
       </c>
       <c r="B6">
-        <v>0.76449999999999996</v>
+        <v>0.30709999999999998</v>
       </c>
       <c r="C6">
-        <v>0.70189999999999997</v>
+        <v>0.69255</v>
       </c>
       <c r="D6">
-        <v>0.70784999999999998</v>
+        <v>0.74819999999999998</v>
       </c>
       <c r="E6">
-        <v>0.82969999999999999</v>
+        <v>0.77575000000000005</v>
       </c>
       <c r="F6">
-        <v>0.71940000000000004</v>
+        <v>0.78939999999999999</v>
       </c>
       <c r="G6">
-        <v>0.23025000000000001</v>
+        <v>0.80105000000000004</v>
       </c>
       <c r="H6">
+        <v>0.30649999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.4703</v>
+      </c>
+      <c r="K6">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.55805000000000005</v>
+      </c>
+      <c r="M6">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.6552</v>
+      </c>
+      <c r="O6">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.57515000000000005</v>
+      </c>
+      <c r="Q6">
+        <v>0.86045000000000005</v>
+      </c>
+      <c r="R6">
+        <v>0.64915</v>
+      </c>
+      <c r="S6">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.40344999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="V6">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="X6">
+        <v>0.34305000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.70504999999999995</v>
+      </c>
+      <c r="AA6">
+        <v>0.52295000000000003</v>
+      </c>
+      <c r="AB6">
+        <v>0.64215</v>
+      </c>
+      <c r="AC6">
+        <v>0.82255</v>
+      </c>
+      <c r="AD6">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.37824999999999998</v>
+      </c>
+      <c r="AF6">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="AG6">
+        <v>0.46105000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>0.27955000000000002</v>
+      </c>
+      <c r="AI6">
         <v>0.32145000000000001</v>
       </c>
-      <c r="I6">
-        <v>0.89964999999999995</v>
-      </c>
-      <c r="J6">
-        <v>0.53585000000000005</v>
-      </c>
-      <c r="K6">
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="L6">
-        <v>0.53129999999999999</v>
-      </c>
-      <c r="M6">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="N6">
-        <v>0.50314999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.80374999999999996</v>
-      </c>
-      <c r="P6">
-        <v>0.68484999999999996</v>
-      </c>
-      <c r="Q6">
-        <v>0.59904999999999997</v>
-      </c>
-      <c r="R6">
-        <v>0.85494999999999999</v>
-      </c>
-      <c r="S6">
-        <v>0.58745000000000003</v>
-      </c>
-      <c r="T6">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="U6">
-        <v>0.66305000000000003</v>
-      </c>
-      <c r="V6">
-        <v>0.38919999999999999</v>
-      </c>
-      <c r="W6">
-        <v>0.46734999999999999</v>
-      </c>
-      <c r="X6">
-        <v>0.97809999999999997</v>
-      </c>
-      <c r="Y6">
-        <v>0.5454</v>
-      </c>
-      <c r="Z6">
-        <v>0.42230000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="AB6">
-        <v>0.3226</v>
-      </c>
-      <c r="AC6">
-        <v>0.80154999999999998</v>
-      </c>
-      <c r="AD6">
-        <v>0.45715</v>
-      </c>
-      <c r="AE6">
-        <v>0.64454999999999996</v>
-      </c>
-      <c r="AF6">
-        <v>0.78369999999999995</v>
-      </c>
-      <c r="AG6">
-        <v>0.75890000000000002</v>
-      </c>
-      <c r="AH6">
-        <v>0.54354999999999998</v>
-      </c>
-      <c r="AI6">
-        <v>0.50034999999999996</v>
-      </c>
       <c r="AJ6">
-        <v>0.39140000000000003</v>
+        <v>0.91315000000000002</v>
       </c>
       <c r="AK6">
-        <v>0.66064999999999996</v>
+        <v>0.6986</v>
       </c>
       <c r="AL6">
-        <v>0.58260000000000001</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="AM6">
-        <v>0.46350000000000002</v>
+        <v>0.55069999999999997</v>
       </c>
       <c r="AN6">
-        <v>0.56389999999999996</v>
+        <v>0.40994999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.73329999999999995</v>
+        <v>0.20995</v>
       </c>
       <c r="AP6">
-        <v>0.36354999999999998</v>
+        <v>0.34565000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0.34639999999999999</v>
+        <v>0.75034999999999996</v>
       </c>
       <c r="AR6">
-        <v>0.69774999999999998</v>
+        <v>0.74895</v>
       </c>
       <c r="AS6">
-        <v>0.60029999999999994</v>
+        <v>0.54044999999999999</v>
       </c>
       <c r="AT6">
-        <v>0.75114999999999998</v>
+        <v>0.79310000000000003</v>
       </c>
       <c r="AU6">
-        <v>0.75329999999999997</v>
+        <v>0.6371</v>
       </c>
       <c r="AV6">
-        <v>0.51334999999999997</v>
+        <v>0.48949999999999999</v>
       </c>
       <c r="AW6">
-        <v>0.63790000000000002</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="AX6">
-        <v>0.71689999999999998</v>
+        <v>0.52725</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.71924999999999994</v>
+        <v>0.51024999999999998</v>
       </c>
       <c r="B7">
-        <v>0.57845000000000002</v>
+        <v>0.45195000000000002</v>
       </c>
       <c r="C7">
-        <v>0.80669999999999997</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="D7">
-        <v>0.80420000000000003</v>
+        <v>0.66749999999999998</v>
       </c>
       <c r="E7">
-        <v>0.79420000000000002</v>
+        <v>0.70235000000000003</v>
       </c>
       <c r="F7">
-        <v>0.56904999999999994</v>
+        <v>0.65934999999999999</v>
       </c>
       <c r="G7">
-        <v>0.1394</v>
+        <v>0.7349</v>
       </c>
       <c r="H7">
-        <v>0.64885000000000004</v>
+        <v>0.62285000000000001</v>
       </c>
       <c r="I7">
-        <v>0.83140000000000003</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="J7">
-        <v>0.53544999999999998</v>
+        <v>0.35825000000000001</v>
       </c>
       <c r="K7">
-        <v>0.82184999999999997</v>
+        <v>0.50019999999999998</v>
       </c>
       <c r="L7">
-        <v>0.3619</v>
+        <v>0.44324999999999998</v>
       </c>
       <c r="M7">
-        <v>0.82484999999999997</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="N7">
-        <v>0.55059999999999998</v>
+        <v>0.63624999999999998</v>
       </c>
       <c r="O7">
-        <v>0.68049999999999999</v>
+        <v>0.1837</v>
       </c>
       <c r="P7">
-        <v>0.61834999999999996</v>
+        <v>0.31295000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.50739999999999996</v>
+        <v>0.88070000000000004</v>
       </c>
       <c r="R7">
-        <v>0.94825000000000004</v>
+        <v>0.60324999999999995</v>
       </c>
       <c r="S7">
-        <v>0.41354999999999997</v>
+        <v>0.31485000000000002</v>
       </c>
       <c r="T7">
-        <v>0.76149999999999995</v>
+        <v>0.43125000000000002</v>
       </c>
       <c r="U7">
-        <v>0.62514999999999998</v>
+        <v>0.87995000000000001</v>
       </c>
       <c r="V7">
-        <v>0.39269999999999999</v>
+        <v>0.45924999999999999</v>
       </c>
       <c r="W7">
-        <v>0.67484999999999995</v>
+        <v>0.33174999999999999</v>
       </c>
       <c r="X7">
-        <v>0.93730000000000002</v>
+        <v>0.4622</v>
       </c>
       <c r="Y7">
-        <v>0.60545000000000004</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="Z7">
-        <v>0.36704999999999999</v>
+        <v>0.61434999999999995</v>
       </c>
       <c r="AA7">
-        <v>0.62739999999999996</v>
+        <v>0.63885000000000003</v>
       </c>
       <c r="AB7">
-        <v>0.40765000000000001</v>
+        <v>0.72504999999999997</v>
       </c>
       <c r="AC7">
-        <v>0.7762</v>
+        <v>0.65195000000000003</v>
       </c>
       <c r="AD7">
-        <v>0.52659999999999996</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="AE7">
-        <v>0.5897</v>
+        <v>0.48704999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.71389999999999998</v>
+        <v>0.55345</v>
       </c>
       <c r="AG7">
-        <v>0.70930000000000004</v>
+        <v>0.32240000000000002</v>
       </c>
       <c r="AH7">
-        <v>0.50480000000000003</v>
+        <v>0.158</v>
       </c>
       <c r="AI7">
-        <v>0.47660000000000002</v>
+        <v>0.36385000000000001</v>
       </c>
       <c r="AJ7">
-        <v>0.32645000000000002</v>
+        <v>0.76475000000000004</v>
       </c>
       <c r="AK7">
-        <v>0.50449999999999995</v>
+        <v>0.49580000000000002</v>
       </c>
       <c r="AL7">
-        <v>0.47249999999999998</v>
+        <v>0.57865</v>
       </c>
       <c r="AM7">
-        <v>0.27360000000000001</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="AN7">
-        <v>0.53464999999999996</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="AO7">
-        <v>0.60985</v>
+        <v>0.25380000000000003</v>
       </c>
       <c r="AP7">
-        <v>0.39624999999999999</v>
+        <v>0.2049</v>
       </c>
       <c r="AQ7">
-        <v>0.23865</v>
+        <v>0.73180000000000001</v>
       </c>
       <c r="AR7">
-        <v>0.80015000000000003</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.70150000000000001</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="AT7">
-        <v>0.53554999999999997</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="AU7">
-        <v>0.56420000000000003</v>
+        <v>0.50349999999999995</v>
       </c>
       <c r="AV7">
-        <v>0.53744999999999998</v>
+        <v>0.49049999999999999</v>
       </c>
       <c r="AW7">
-        <v>0.83450000000000002</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="AX7">
-        <v>0.65849999999999997</v>
+        <v>0.57204999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.67595000000000005</v>
+        <v>0.46189999999999998</v>
       </c>
       <c r="B8">
-        <v>0.39389999999999997</v>
+        <v>0.57745000000000002</v>
       </c>
       <c r="C8">
-        <v>0.61375000000000002</v>
+        <v>0.58040000000000003</v>
       </c>
       <c r="D8">
-        <v>0.62504999999999999</v>
+        <v>0.94335000000000002</v>
       </c>
       <c r="E8">
-        <v>0.60924999999999996</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="F8">
-        <v>0.74434999999999996</v>
+        <v>0.76195000000000002</v>
       </c>
       <c r="G8">
-        <v>3.8850000000000003E-2</v>
+        <v>0.82369999999999999</v>
       </c>
       <c r="H8">
-        <v>0.78295000000000003</v>
+        <v>0.53685000000000005</v>
       </c>
       <c r="I8">
-        <v>0.5444</v>
+        <v>0.63239999999999996</v>
       </c>
       <c r="J8">
-        <v>0.53125</v>
+        <v>0.29715000000000003</v>
       </c>
       <c r="K8">
-        <v>0.63019999999999998</v>
+        <v>0.29085</v>
       </c>
       <c r="L8">
-        <v>0.16059999999999999</v>
+        <v>0.56384999999999996</v>
       </c>
       <c r="M8">
-        <v>0.79590000000000005</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="N8">
-        <v>0.52070000000000005</v>
+        <v>0.42830000000000001</v>
       </c>
       <c r="O8">
-        <v>0.91185000000000005</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P8">
-        <v>0.52100000000000002</v>
+        <v>0.37980000000000003</v>
       </c>
       <c r="Q8">
-        <v>0.36299999999999999</v>
+        <v>0.88039999999999996</v>
       </c>
       <c r="R8">
-        <v>0.90410000000000001</v>
+        <v>0.55135000000000001</v>
       </c>
       <c r="S8">
-        <v>0.29085</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="T8">
-        <v>0.74995000000000001</v>
+        <v>0.48809999999999998</v>
       </c>
       <c r="U8">
-        <v>0.90495000000000003</v>
+        <v>0.90620000000000001</v>
       </c>
       <c r="V8">
-        <v>0.39810000000000001</v>
+        <v>0.5363</v>
       </c>
       <c r="W8">
-        <v>0.57415000000000005</v>
+        <v>0.51790000000000003</v>
       </c>
       <c r="X8">
-        <v>0.78359999999999996</v>
+        <v>0.48715000000000003</v>
       </c>
       <c r="Y8">
-        <v>0.69674999999999998</v>
+        <v>0.30590000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.62585000000000002</v>
+        <v>0.59245000000000003</v>
       </c>
       <c r="AA8">
-        <v>0.54484999999999995</v>
+        <v>0.56835000000000002</v>
       </c>
       <c r="AB8">
-        <v>0.53835</v>
+        <v>0.80310000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.96274999999999999</v>
+        <v>0.57625000000000004</v>
       </c>
       <c r="AD8">
-        <v>0.47189999999999999</v>
+        <v>0.67190000000000005</v>
       </c>
       <c r="AE8">
-        <v>0.73045000000000004</v>
+        <v>0.30245</v>
       </c>
       <c r="AF8">
-        <v>0.749</v>
+        <v>0.58545000000000003</v>
       </c>
       <c r="AG8">
-        <v>0.7319</v>
+        <v>0.27015</v>
       </c>
       <c r="AH8">
-        <v>0.40915000000000001</v>
+        <v>0.12085</v>
       </c>
       <c r="AI8">
-        <v>0.35149999999999998</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="AJ8">
-        <v>0.3201</v>
+        <v>0.66274999999999995</v>
       </c>
       <c r="AK8">
-        <v>0.30570000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AL8">
-        <v>0.46744999999999998</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="AM8">
-        <v>0.35435</v>
+        <v>0.40175</v>
       </c>
       <c r="AN8">
-        <v>0.51400000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="AO8">
-        <v>0.74209999999999998</v>
+        <v>0.40705000000000002</v>
       </c>
       <c r="AP8">
-        <v>0.44164999999999999</v>
+        <v>0.12385</v>
       </c>
       <c r="AQ8">
-        <v>0.32969999999999999</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="AR8">
-        <v>0.72555000000000003</v>
+        <v>0.68764999999999998</v>
       </c>
       <c r="AS8">
-        <v>0.82879999999999998</v>
+        <v>0.42459999999999998</v>
       </c>
       <c r="AT8">
-        <v>0.75665000000000004</v>
+        <v>0.82750000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.56430000000000002</v>
+        <v>0.43905</v>
       </c>
       <c r="AV8">
-        <v>0.54444999999999999</v>
+        <v>0.45710000000000001</v>
       </c>
       <c r="AW8">
-        <v>0.68940000000000001</v>
+        <v>0.17125000000000001</v>
       </c>
       <c r="AX8">
-        <v>0.55879999999999996</v>
+        <v>0.39715</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.50939999999999996</v>
+        <v>0.32435000000000003</v>
       </c>
       <c r="B9">
-        <v>0.66215000000000002</v>
+        <v>0.33065</v>
       </c>
       <c r="C9">
-        <v>0.50109999999999999</v>
+        <v>0.62065000000000003</v>
       </c>
       <c r="D9">
-        <v>0.58525000000000005</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="E9">
-        <v>0.34644999999999998</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F9">
-        <v>0.6956</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="G9">
-        <v>9.665E-2</v>
+        <v>0.65605000000000002</v>
       </c>
       <c r="H9">
-        <v>0.51285000000000003</v>
+        <v>0.45939999999999998</v>
       </c>
       <c r="I9">
-        <v>0.44419999999999998</v>
+        <v>0.40784999999999999</v>
       </c>
       <c r="J9">
-        <v>0.74775000000000003</v>
+        <v>0.3947</v>
       </c>
       <c r="K9">
-        <v>0.60624999999999996</v>
+        <v>0.29144999999999999</v>
       </c>
       <c r="L9">
-        <v>0.28804999999999997</v>
+        <v>0.45810000000000001</v>
       </c>
       <c r="M9">
-        <v>0.74514999999999998</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="N9">
-        <v>0.62050000000000005</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="O9">
-        <v>0.89419999999999999</v>
+        <v>9.5350000000000004E-2</v>
       </c>
       <c r="P9">
-        <v>0.50170000000000003</v>
+        <v>0.25245000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.37445000000000001</v>
+        <v>0.87234999999999996</v>
       </c>
       <c r="R9">
-        <v>0.84079999999999999</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="S9">
-        <v>0.2225</v>
+        <v>0.69550000000000001</v>
       </c>
       <c r="T9">
-        <v>0.81040000000000001</v>
+        <v>0.75795000000000001</v>
       </c>
       <c r="U9">
-        <v>0.83069999999999999</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="V9">
-        <v>0.54105000000000003</v>
+        <v>0.41260000000000002</v>
       </c>
       <c r="W9">
-        <v>0.49564999999999998</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="X9">
-        <v>0.63270000000000004</v>
+        <v>0.56264999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.75944999999999996</v>
+        <v>0.41744999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.59435000000000004</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.48699999999999999</v>
+        <v>0.59489999999999998</v>
       </c>
       <c r="AB9">
-        <v>0.29825000000000002</v>
+        <v>0.88344999999999996</v>
       </c>
       <c r="AC9">
-        <v>0.85594999999999999</v>
+        <v>0.73155000000000003</v>
       </c>
       <c r="AD9">
-        <v>0.58065</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.43940000000000001</v>
+        <v>0.30630000000000002</v>
       </c>
       <c r="AF9">
-        <v>0.67074999999999996</v>
+        <v>0.49669999999999997</v>
       </c>
       <c r="AG9">
-        <v>0.68615000000000004</v>
+        <v>0.28985</v>
       </c>
       <c r="AH9">
-        <v>0.20835000000000001</v>
+        <v>0.32145000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.54620000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="AJ9">
-        <v>0.44824999999999998</v>
+        <v>0.57825000000000004</v>
       </c>
       <c r="AK9">
-        <v>0.64265000000000005</v>
+        <v>0.21379999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.51765000000000005</v>
+        <v>0.40994999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.44805</v>
+        <v>0.71840000000000004</v>
       </c>
       <c r="AN9">
-        <v>0.50414999999999999</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="AO9">
-        <v>0.64695000000000003</v>
+        <v>0.2152</v>
       </c>
       <c r="AP9">
-        <v>0.47075</v>
+        <v>0.30975000000000003</v>
       </c>
       <c r="AQ9">
-        <v>0.17150000000000001</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="AR9">
-        <v>0.6835</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="AS9">
-        <v>0.86519999999999997</v>
+        <v>0.68645</v>
       </c>
       <c r="AT9">
-        <v>0.74550000000000005</v>
+        <v>0.82525000000000004</v>
       </c>
       <c r="AU9">
-        <v>0.41635</v>
+        <v>0.15690000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.77559999999999996</v>
+        <v>0.58279999999999998</v>
       </c>
       <c r="AW9">
-        <v>0.56440000000000001</v>
+        <v>0.31480000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.7641</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.4778</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="B10">
-        <v>0.57799999999999996</v>
+        <v>0.33119999999999999</v>
       </c>
       <c r="C10">
-        <v>0.46105000000000002</v>
+        <v>0.63324999999999998</v>
       </c>
       <c r="D10">
-        <v>0.77415</v>
+        <v>0.79484999999999995</v>
       </c>
       <c r="E10">
-        <v>0.37214999999999998</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="F10">
-        <v>0.89839999999999998</v>
+        <v>0.76985000000000003</v>
       </c>
       <c r="G10">
-        <v>2.9499999999999998E-2</v>
+        <v>0.60335000000000005</v>
       </c>
       <c r="H10">
-        <v>0.57055</v>
+        <v>0.2661</v>
       </c>
       <c r="I10">
-        <v>0.65049999999999997</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="J10">
-        <v>0.80589999999999995</v>
+        <v>0.44714999999999999</v>
       </c>
       <c r="K10">
-        <v>0.62265000000000004</v>
+        <v>0.30025000000000002</v>
       </c>
       <c r="L10">
-        <v>0.25174999999999997</v>
+        <v>0.73194999999999999</v>
       </c>
       <c r="M10">
-        <v>0.67254999999999998</v>
+        <v>0.72</v>
       </c>
       <c r="N10">
-        <v>0.55379999999999996</v>
+        <v>0.34434999999999999</v>
       </c>
       <c r="O10">
-        <v>0.86860000000000004</v>
+        <v>0.36430000000000001</v>
       </c>
       <c r="P10">
-        <v>0.43509999999999999</v>
+        <v>0.1323</v>
       </c>
       <c r="Q10">
-        <v>0.42109999999999997</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="R10">
-        <v>0.66679999999999995</v>
+        <v>0.56969999999999998</v>
       </c>
       <c r="S10">
-        <v>0.27310000000000001</v>
+        <v>0.66685000000000005</v>
       </c>
       <c r="T10">
-        <v>0.69030000000000002</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="U10">
-        <v>0.77275000000000005</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="V10">
-        <v>0.77070000000000005</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="W10">
-        <v>0.46665000000000001</v>
+        <v>0.58004999999999995</v>
       </c>
       <c r="X10">
-        <v>0.79620000000000002</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="Y10">
-        <v>0.56384999999999996</v>
+        <v>0.25074999999999997</v>
       </c>
       <c r="Z10">
-        <v>0.58714999999999995</v>
+        <v>0.59535000000000005</v>
       </c>
       <c r="AA10">
-        <v>0.48344999999999999</v>
+        <v>0.2482</v>
       </c>
       <c r="AB10">
-        <v>0.32295000000000001</v>
+        <v>0.75434999999999997</v>
       </c>
       <c r="AC10">
-        <v>0.70445000000000002</v>
+        <v>0.58655000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.61755000000000004</v>
+        <v>0.55715000000000003</v>
       </c>
       <c r="AE10">
-        <v>0.46899999999999997</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="AF10">
-        <v>0.72245000000000004</v>
+        <v>0.33489999999999998</v>
       </c>
       <c r="AG10">
-        <v>0.72470000000000001</v>
+        <v>0.33689999999999998</v>
       </c>
       <c r="AH10">
-        <v>0.15934999999999999</v>
+        <v>0.42125000000000001</v>
       </c>
       <c r="AI10">
-        <v>0.6129</v>
+        <v>0.58179999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.69664999999999999</v>
+        <v>0.45879999999999999</v>
       </c>
       <c r="AK10">
-        <v>0.66759999999999997</v>
+        <v>0.16435</v>
       </c>
       <c r="AL10">
-        <v>0.64754999999999996</v>
+        <v>0.41875000000000001</v>
       </c>
       <c r="AM10">
-        <v>0.55930000000000002</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="AN10">
-        <v>0.4647</v>
+        <v>0.78034999999999999</v>
       </c>
       <c r="AO10">
-        <v>0.58255000000000001</v>
+        <v>0.13930000000000001</v>
       </c>
       <c r="AP10">
-        <v>0.48515000000000003</v>
+        <v>0.46870000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.25955</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.56859999999999999</v>
+        <v>0.52905000000000002</v>
       </c>
       <c r="AS10">
-        <v>0.78495000000000004</v>
+        <v>0.37245</v>
       </c>
       <c r="AT10">
-        <v>0.66120000000000001</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="AU10">
-        <v>0.37114999999999998</v>
+        <v>0.12495000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.59735000000000005</v>
+        <v>0.4834</v>
       </c>
       <c r="AW10">
-        <v>0.40665000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AX10">
-        <v>0.54730000000000001</v>
+        <v>0.17469999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.43614999999999998</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="B11">
-        <v>0.33805000000000002</v>
+        <v>0.60285</v>
       </c>
       <c r="C11">
-        <v>0.18709999999999999</v>
+        <v>0.68540000000000001</v>
       </c>
       <c r="D11">
-        <v>0.53195000000000003</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="E11">
-        <v>0.5101</v>
+        <v>0.79884999999999995</v>
       </c>
       <c r="F11">
-        <v>0.71909999999999996</v>
+        <v>0.70565</v>
       </c>
       <c r="G11">
-        <v>1.3599999999999999E-2</v>
+        <v>0.60745000000000005</v>
       </c>
       <c r="H11">
-        <v>0.30659999999999998</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="I11">
-        <v>0.58830000000000005</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="J11">
-        <v>0.74919999999999998</v>
+        <v>0.46405000000000002</v>
       </c>
       <c r="K11">
-        <v>0.53569999999999995</v>
+        <v>0.35904999999999998</v>
       </c>
       <c r="L11">
-        <v>0.40279999999999999</v>
+        <v>0.38990000000000002</v>
       </c>
       <c r="M11">
-        <v>0.66205000000000003</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="N11">
-        <v>0.60370000000000001</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="O11">
-        <v>0.79300000000000004</v>
+        <v>0.32995000000000002</v>
       </c>
       <c r="P11">
-        <v>0.35</v>
+        <v>0.1724</v>
       </c>
       <c r="Q11">
-        <v>0.35875000000000001</v>
+        <v>0.77364999999999995</v>
       </c>
       <c r="R11">
-        <v>0.71325000000000005</v>
+        <v>0.63854999999999995</v>
       </c>
       <c r="S11">
-        <v>0.32505000000000001</v>
+        <v>0.63429999999999997</v>
       </c>
       <c r="T11">
-        <v>0.61029999999999995</v>
+        <v>0.77224999999999999</v>
       </c>
       <c r="U11">
-        <v>0.92079999999999995</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="V11">
-        <v>0.52910000000000001</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="W11">
-        <v>0.59275</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
-        <v>0.67330000000000001</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="Y11">
-        <v>0.5302</v>
+        <v>0.12085</v>
       </c>
       <c r="Z11">
-        <v>0.67584999999999995</v>
+        <v>0.68825000000000003</v>
       </c>
       <c r="AA11">
-        <v>0.74239999999999995</v>
+        <v>0.2087</v>
       </c>
       <c r="AB11">
-        <v>0.41010000000000002</v>
+        <v>0.58260000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.625</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="AD11">
-        <v>0.51880000000000004</v>
+        <v>0.6028</v>
       </c>
       <c r="AE11">
-        <v>0.56030000000000002</v>
+        <v>0.4551</v>
       </c>
       <c r="AF11">
-        <v>0.66195000000000004</v>
+        <v>0.26665</v>
       </c>
       <c r="AG11">
-        <v>0.78890000000000005</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.159</v>
+        <v>0.48585</v>
       </c>
       <c r="AI11">
-        <v>0.53820000000000001</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="AJ11">
-        <v>0.62880000000000003</v>
+        <v>0.36020000000000002</v>
       </c>
       <c r="AK11">
-        <v>0.68215000000000003</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="AL11">
-        <v>0.67854999999999999</v>
+        <v>0.70584999999999998</v>
       </c>
       <c r="AM11">
-        <v>0.57445000000000002</v>
+        <v>0.91259999999999997</v>
       </c>
       <c r="AN11">
-        <v>0.39484999999999998</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.69740000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.4728</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.28044999999999998</v>
+        <v>0.64029999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.75170000000000003</v>
+        <v>0.55220000000000002</v>
       </c>
       <c r="AS11">
-        <v>0.58714999999999995</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="AT11">
-        <v>0.69499999999999995</v>
+        <v>0.62765000000000004</v>
       </c>
       <c r="AU11">
-        <v>0.30914999999999998</v>
+        <v>0.1429</v>
       </c>
       <c r="AV11">
-        <v>0.65539999999999998</v>
+        <v>0.56245000000000001</v>
       </c>
       <c r="AW11">
-        <v>0.43905</v>
+        <v>0.32179999999999997</v>
       </c>
       <c r="AX11">
-        <v>0.39789999999999998</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
   </sheetData>
